--- a/pearson_tables/tp_netherlands_cumul-1-5.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7542245951993733</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5073810740521155</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.526006560534084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8234308031530929</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5674501423059257</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5737364234937601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6846301006279838</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6293663478268361</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6724525187452096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7712879069283121</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6321551188603493</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6730417475691794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.782217346439779</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7454037991928366</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6069976009820617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7142140292125465</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6776022003308722</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6958137256546385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7707938595548286</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5684452790817759</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7199582690798728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7481216069172349</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.684320776627914</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6960071938282861</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
